--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/40/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/40/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8938938938938938</v>
+        <v>0.9599959995999601</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1863.863863863864</v>
+        <v>1553.645364536454</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007507507507507507</v>
+        <v>0.01549154915491549</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4104104104104104</v>
+        <v>0.8161816181618162</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385.385385385385</v>
+        <v>558.8958895889589</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.4174174174175</v>
+        <v>681.1881188118812</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.1581581581582</v>
+        <v>620.4419441944194</v>
       </c>
     </row>
   </sheetData>
